--- a/output/fit_clients/fit_round_113.xlsx
+++ b/output/fit_clients/fit_round_113.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2493055719.443941</v>
+        <v>2440861168.064242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08523779753358914</v>
+        <v>0.1009777377643097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03804116669654526</v>
+        <v>0.04332235201892586</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1246527921.585998</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1805798711.19338</v>
+        <v>2341460028.874927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1494423238202121</v>
+        <v>0.1461962147319486</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04575828951285496</v>
+        <v>0.03945371657014502</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>902899365.5233109</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4424841893.656511</v>
+        <v>4708035094.496726</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1374286815983074</v>
+        <v>0.150404763063643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03492615853620935</v>
+        <v>0.02733217365309167</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2212420991.046849</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3000028405.544124</v>
+        <v>4044031170.041771</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1078395725313078</v>
+        <v>0.1064597223862045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03655617917832874</v>
+        <v>0.03440030896829832</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1500014272.580313</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2630814468.5136</v>
+        <v>1932768933.907537</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1124664027399766</v>
+        <v>0.1353980508398396</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03831016206864531</v>
+        <v>0.0460099566460878</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1315407195.527781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2477798035.437529</v>
+        <v>2938340158.953315</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08593617281779645</v>
+        <v>0.08612486717074019</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04585056115613512</v>
+        <v>0.04245769979072427</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1238899032.810372</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2418370042.937863</v>
+        <v>3563100334.942239</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2051896910768376</v>
+        <v>0.2109399151537858</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02510273395139805</v>
+        <v>0.03293364022937434</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1209185019.46896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1819681974.455477</v>
+        <v>2107138380.439348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1628796556787745</v>
+        <v>0.1784946708258852</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03307430464891049</v>
+        <v>0.03582664740171622</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>909841038.8048854</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4857355887.467145</v>
+        <v>4428029714.982105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.188460366669218</v>
+        <v>0.1317497795806331</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05086885562276786</v>
+        <v>0.05182490623629602</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>48</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2428678031.935167</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4024888634.902279</v>
+        <v>3229039135.435989</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1588336943448769</v>
+        <v>0.1761113126630459</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04630810213357304</v>
+        <v>0.03418720056479802</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>47</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2012444331.790942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2334605460.28604</v>
+        <v>2346460986.046067</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1791244290729199</v>
+        <v>0.184686990444961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03621431617488351</v>
+        <v>0.0416834774540983</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>40</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1167302687.170816</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3244519791.093125</v>
+        <v>3237676169.374376</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06961721168513191</v>
+        <v>0.09440109547955225</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02635316621482479</v>
+        <v>0.02013422355593798</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>38</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1622259988.794307</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2548827881.436035</v>
+        <v>2943195226.870113</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1589354707503014</v>
+        <v>0.1358474872020427</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02783173990660083</v>
+        <v>0.04300340390226628</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>36</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1274414007.748602</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1668631362.341238</v>
+        <v>1250157695.244116</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08412027387116766</v>
+        <v>0.09147646052334306</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04846371862858138</v>
+        <v>0.04696791552673458</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>834315804.8392582</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2431192795.230866</v>
+        <v>2245442760.955324</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07401673105489741</v>
+        <v>0.08677623679698279</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04592725927174533</v>
+        <v>0.04241530283479959</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1215596434.517304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3471837259.585368</v>
+        <v>4925957760.118711</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1727564266458562</v>
+        <v>0.166131278054215</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04410004827312119</v>
+        <v>0.0400209178022434</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>33</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1735918690.463477</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2432677245.877286</v>
+        <v>3466672394.602458</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1443757021803518</v>
+        <v>0.1601337500366861</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02994256163400266</v>
+        <v>0.02753310557986161</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>37</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1216338694.184732</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1179666957.177637</v>
+        <v>1212939331.307185</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1874738312572744</v>
+        <v>0.169066940106079</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02369254343029883</v>
+        <v>0.02010965799744574</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>589833551.5060095</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2027048163.270763</v>
+        <v>2793734239.910629</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1562593529707848</v>
+        <v>0.1165689419575916</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02436841102536511</v>
+        <v>0.02911257567023188</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1013524105.026312</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2630123537.957084</v>
+        <v>2526058396.965648</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07643856884600041</v>
+        <v>0.09890733370735885</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03347976475552861</v>
+        <v>0.0367615951154012</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1315061744.624662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2597379697.888559</v>
+        <v>2766731217.043223</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1223727217788106</v>
+        <v>0.1063719574203903</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03628698405528536</v>
+        <v>0.04973468390914188</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>31</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1298689934.532506</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1351613597.487854</v>
+        <v>1296055337.526255</v>
       </c>
       <c r="F23" t="n">
-        <v>0.174050009235604</v>
+        <v>0.1668061106434822</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04692180985484141</v>
+        <v>0.04266317742920334</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>675806809.6310985</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2942807197.443099</v>
+        <v>2620654349.838021</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1069157920735334</v>
+        <v>0.1500688290473633</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03493925017780153</v>
+        <v>0.02742399029450598</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>33</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1471403637.747858</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1406086004.069295</v>
+        <v>1199788368.017418</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09841901111114706</v>
+        <v>0.1226165638188139</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03020948290980411</v>
+        <v>0.02054836260425867</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>703042972.531589</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1341080956.696209</v>
+        <v>1455562265.392865</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08588552023629129</v>
+        <v>0.0849305684643378</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03515772210906379</v>
+        <v>0.03814969502412784</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>670540533.833774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3562017843.975698</v>
+        <v>4553843423.085754</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09661908380688849</v>
+        <v>0.09829161996606245</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01908275861643207</v>
+        <v>0.02650235316394273</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1781008953.821482</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2470081912.850763</v>
+        <v>3158695264.55124</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1046417302140539</v>
+        <v>0.1455820173843799</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03296505798650361</v>
+        <v>0.04182321899686885</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>36</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1235040921.588445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3703381727.664768</v>
+        <v>4945860244.330536</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1156930588519566</v>
+        <v>0.1183117886018042</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0341189961890765</v>
+        <v>0.04321361690967281</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>51</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1851690901.166587</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2389171452.039624</v>
+        <v>1976627215.93501</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1352331597635642</v>
+        <v>0.1350744475023204</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02543321172726101</v>
+        <v>0.03571990883097056</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1194585807.717985</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>921580801.950578</v>
+        <v>1495693912.917402</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09330725129307495</v>
+        <v>0.08233738039896829</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04299125254478212</v>
+        <v>0.04490616535590446</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>460790417.8956115</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1321719191.779107</v>
+        <v>1357808209.039279</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07435008016265109</v>
+        <v>0.09397684114749197</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0244500045050901</v>
+        <v>0.03269389742230376</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>660859627.2780218</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2995677808.583379</v>
+        <v>1933502796.135401</v>
       </c>
       <c r="F33" t="n">
-        <v>0.130382506166581</v>
+        <v>0.1805923349411128</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0605329602392335</v>
+        <v>0.04202191016701558</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>32</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1497838900.215576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1032972133.826668</v>
+        <v>1102628216.372581</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08703104418633691</v>
+        <v>0.09869141407798075</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02368955806161394</v>
+        <v>0.01932367694590812</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>516486099.2738513</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>839538361.5712514</v>
+        <v>900286744.0056716</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09405185961306035</v>
+        <v>0.07871016534868622</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02779704900573432</v>
+        <v>0.03095423956324824</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>419769234.4935184</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2065059455.310494</v>
+        <v>3074772570.78754</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1357293356793634</v>
+        <v>0.132297939262397</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02289403292825555</v>
+        <v>0.02645277423156524</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1032529784.431566</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2217484805.823436</v>
+        <v>1845812038.673094</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09053927272281032</v>
+        <v>0.09458374797211583</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03809666811829155</v>
+        <v>0.02937468583447292</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>30</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1108742460.073334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2121346525.397283</v>
+        <v>1678687801.048586</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07360861284905061</v>
+        <v>0.1024332965925991</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0331564110979785</v>
+        <v>0.02740251527306032</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1060673224.123549</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1658969302.597148</v>
+        <v>1483456337.158925</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1259245691306631</v>
+        <v>0.1393001414708975</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02115920897872906</v>
+        <v>0.024012665025608</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>829484697.5375481</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1203084158.9918</v>
+        <v>1097030843.067158</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1560264229727608</v>
+        <v>0.1147286413271886</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06015808701020928</v>
+        <v>0.03940009270009004</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>601542119.9722489</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2574215993.749828</v>
+        <v>2399296467.472747</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1332818910227609</v>
+        <v>0.1382401703656062</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02890385606585181</v>
+        <v>0.03511749697663797</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>27</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1287108014.830385</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4044668610.285639</v>
+        <v>3841070421.207917</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0942678339516384</v>
+        <v>0.112507488496573</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04388513781688066</v>
+        <v>0.04610503918311936</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2022334337.438123</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2127326613.60491</v>
+        <v>2203458768.374959</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1613252160694011</v>
+        <v>0.1835220656758962</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01951240462699357</v>
+        <v>0.01677635464874251</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>37</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1063663392.876629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1954868755.963411</v>
+        <v>1454732343.34365</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0668094536854334</v>
+        <v>0.08888488479583212</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02386919640578578</v>
+        <v>0.02657651780335065</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>977434475.2549139</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2152141162.329753</v>
+        <v>2327592886.905562</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1727841684050737</v>
+        <v>0.1761170422329439</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05147620045336542</v>
+        <v>0.03582637722510322</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1076070587.280686</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5156251474.940187</v>
+        <v>5366799443.820657</v>
       </c>
       <c r="F46" t="n">
-        <v>0.165555167424304</v>
+        <v>0.1111676863852866</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05938956441138645</v>
+        <v>0.04707549664536406</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>40</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2578125773.128132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3243264606.277793</v>
+        <v>5182634206.450084</v>
       </c>
       <c r="F47" t="n">
-        <v>0.146674770445464</v>
+        <v>0.1362446903080197</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04661425711082199</v>
+        <v>0.05819806714027869</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>30</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1621632259.324022</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4145168180.297937</v>
+        <v>4565189692.021377</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1098462788393742</v>
+        <v>0.07609086262167512</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03118570050737347</v>
+        <v>0.02956356616110422</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2072584116.009653</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1484410775.074423</v>
+        <v>1558353459.631734</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1584799050679366</v>
+        <v>0.1851974908340907</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03465327260227127</v>
+        <v>0.02777353506654491</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>742205421.9287386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4133238945.796118</v>
+        <v>4156292640.348741</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1175010326708008</v>
+        <v>0.1454780558535904</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04149880332873514</v>
+        <v>0.04114874269405666</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>39</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2066619452.048563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1409095207.322548</v>
+        <v>999726237.977195</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1264371729188448</v>
+        <v>0.1750455756987472</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03755600444026352</v>
+        <v>0.04593134171182266</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>704547621.270388</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4605216130.424072</v>
+        <v>4158885870.703354</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1313126605933672</v>
+        <v>0.09510615324527819</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04272713843822747</v>
+        <v>0.0523796007380307</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>47</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2302608086.012234</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3250618805.951703</v>
+        <v>2894820163.03878</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1996054227050316</v>
+        <v>0.147834019616144</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02273768002290204</v>
+        <v>0.02149206987318229</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>33</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1625309418.066312</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3967278537.547358</v>
+        <v>3419655462.608382</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1092005818054021</v>
+        <v>0.1062215576436473</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03387267483792463</v>
+        <v>0.04812374886545949</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>38</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1983639330.232355</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4555416123.416586</v>
+        <v>3336870661.75379</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1925813084995717</v>
+        <v>0.1526059301867581</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02842377906327148</v>
+        <v>0.02744632177213123</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2277708061.075194</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1704005103.624111</v>
+        <v>1792715894.793853</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1086036104100198</v>
+        <v>0.1231823440083114</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04518829093174437</v>
+        <v>0.04443061336165247</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>852002563.7826049</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3890799569.828958</v>
+        <v>4159553761.509175</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1594503385789011</v>
+        <v>0.1726573696057248</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02063086691863791</v>
+        <v>0.02037244746433029</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>37</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1945399864.049861</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1560212042.516604</v>
+        <v>1742477900.700557</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1739315669105102</v>
+        <v>0.1622590564340537</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03902137710006618</v>
+        <v>0.02741957681257811</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>780106046.8346167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4125664022.051476</v>
+        <v>4899763364.573419</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1156430744061676</v>
+        <v>0.1027399739039213</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04863570293353014</v>
+        <v>0.0327807011751358</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>31</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2062831980.866328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3537526146.600268</v>
+        <v>3375643110.996641</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1417222674241777</v>
+        <v>0.1316014921233157</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02015115800599443</v>
+        <v>0.03194889181805908</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1768763199.959097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2685529938.800393</v>
+        <v>2627410703.151689</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1588837083892835</v>
+        <v>0.1772118937131116</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02050979096018385</v>
+        <v>0.0250593550750892</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>40</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1342764979.465441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2003385326.64608</v>
+        <v>1658492678.673768</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1594301739387936</v>
+        <v>0.1397800231772346</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04260824155230837</v>
+        <v>0.03008366905336399</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1001692721.844354</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3568075157.826662</v>
+        <v>4254763641.550219</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06542377813862776</v>
+        <v>0.08487180401146616</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03442282793108407</v>
+        <v>0.0386819171389865</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>32</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1784037660.507732</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3433420721.447372</v>
+        <v>4202677986.725537</v>
       </c>
       <c r="F64" t="n">
-        <v>0.130824828788707</v>
+        <v>0.1856089610348426</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02670838662777185</v>
+        <v>0.0346713849073551</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>35</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1716710356.668907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4257335217.664734</v>
+        <v>3716710578.355906</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1077503183669417</v>
+        <v>0.1646684314934296</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02487457584767794</v>
+        <v>0.01990491289257426</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>41</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2128667612.000975</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4287171990.134876</v>
+        <v>4831351516.236818</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1311995905888405</v>
+        <v>0.1570705536565982</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03986591198493175</v>
+        <v>0.04187640515391704</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>33</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2143585983.975873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2850399665.883739</v>
+        <v>2224088840.35816</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08016719124309589</v>
+        <v>0.06540316433561445</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04591118467095133</v>
+        <v>0.04393702056202441</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>37</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1425199863.833882</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5196210683.580594</v>
+        <v>5715147540.831213</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1484294711007622</v>
+        <v>0.1539096802028662</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0352372432367186</v>
+        <v>0.05132997469370496</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>36</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2598105410.00443</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2279027848.278249</v>
+        <v>1852223590.772813</v>
       </c>
       <c r="F69" t="n">
-        <v>0.116891906971655</v>
+        <v>0.1183401543246031</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04267969037413046</v>
+        <v>0.04118718684564668</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1139513965.102112</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3175299719.778498</v>
+        <v>3727574660.789548</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1030312947193326</v>
+        <v>0.08660151968406782</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04132545286250931</v>
+        <v>0.04109819682455688</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>32</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1587649848.28334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4037173164.608421</v>
+        <v>3927691624.39927</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1415340960820403</v>
+        <v>0.1187786545017949</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03184567138928993</v>
+        <v>0.03052224110708735</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>41</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2018586616.062017</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2277398119.374135</v>
+        <v>1654912582.981064</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07683969600521416</v>
+        <v>0.07576589412852874</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04751002506269678</v>
+        <v>0.03670364762458049</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1138698961.228552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2441341947.18641</v>
+        <v>2647700653.245649</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1088145917052538</v>
+        <v>0.1037610801886154</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05098574912562787</v>
+        <v>0.05157322429711407</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>44</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1220671020.635535</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3872071953.063555</v>
+        <v>3589401080.549656</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1794773464481259</v>
+        <v>0.1671198471583686</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02469274321430007</v>
+        <v>0.02791150720813859</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>39</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1936035966.488732</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1939560821.969103</v>
+        <v>1685742880.921273</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1456214868008607</v>
+        <v>0.1406864740662114</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02431631827586125</v>
+        <v>0.02940713077929829</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>969780380.750852</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4483857778.023008</v>
+        <v>4641001151.574922</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1090263886680176</v>
+        <v>0.07716727553958494</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02248556822066168</v>
+        <v>0.02720849932871108</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2241928893.962382</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1704441478.521745</v>
+        <v>1631382784.469997</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1394694864641874</v>
+        <v>0.1631438147628584</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02665796599445208</v>
+        <v>0.031071127202922</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>852220757.0513158</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3339216121.986496</v>
+        <v>4453425076.015979</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1086649613130025</v>
+        <v>0.1013650960809531</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04587126702484306</v>
+        <v>0.04978119493331744</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>40</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1669608073.935456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1920964340.876796</v>
+        <v>1199565619.579513</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1288996550037748</v>
+        <v>0.1754026407237252</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02570530256000269</v>
+        <v>0.03995485386701999</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>960482278.2290763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3682870080.27655</v>
+        <v>3912173457.409883</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06886649966936688</v>
+        <v>0.09053566627571655</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03166705964354994</v>
+        <v>0.03178670333788444</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>24</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1841435023.787469</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5118314723.449436</v>
+        <v>5120196220.043971</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1283211337139826</v>
+        <v>0.1280603148860303</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02537768420164189</v>
+        <v>0.02587436734425794</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>26</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2559157366.426029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4594590040.39747</v>
+        <v>5026803721.514246</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1526494585281326</v>
+        <v>0.1512514759322666</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02712577844315692</v>
+        <v>0.02157848525879392</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>40</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2297295026.674668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1756141372.036191</v>
+        <v>2466483144.305192</v>
       </c>
       <c r="F83" t="n">
-        <v>0.14948916737789</v>
+        <v>0.1270907717447665</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03352582193122587</v>
+        <v>0.03534290964843486</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>878070640.9208391</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1706515852.12476</v>
+        <v>2056151320.750074</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09481876916482711</v>
+        <v>0.07822003779806856</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04480649400065582</v>
+        <v>0.04881829179192065</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>853257973.980822</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2728808663.431711</v>
+        <v>3109785802.927072</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1145363329614874</v>
+        <v>0.1337887852898889</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05318210035786459</v>
+        <v>0.04933724164062157</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>42</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1364404361.874612</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2392376079.376774</v>
+        <v>2768062537.773904</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1466772861557508</v>
+        <v>0.1702710720459006</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02444821193917057</v>
+        <v>0.02158738370429501</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1196188121.827127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1415830424.133984</v>
+        <v>1475764601.451105</v>
       </c>
       <c r="F87" t="n">
-        <v>0.140164878040129</v>
+        <v>0.1289269845721876</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04221101760967166</v>
+        <v>0.04120419166660303</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>707915322.911065</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3481515522.778925</v>
+        <v>3649715044.159999</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1184006677778249</v>
+        <v>0.1532126546159167</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02653752258278167</v>
+        <v>0.0309353942240418</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>44</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1740757839.357048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3188563503.947426</v>
+        <v>3356091926.42766</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1321296944562686</v>
+        <v>0.1304826210665066</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02953790853282896</v>
+        <v>0.03044010989964755</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>38</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1594281776.199592</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1815806935.271847</v>
+        <v>1500752983.655327</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1174222660219441</v>
+        <v>0.08961168229922188</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05595589976415613</v>
+        <v>0.04269320826462839</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>907903504.1421905</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1757631790.511519</v>
+        <v>1463295315.283672</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1329353454559373</v>
+        <v>0.1463796287740187</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04520183108285836</v>
+        <v>0.03759477888363245</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>878815899.7625487</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2927111465.311007</v>
+        <v>2347012147.556786</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08652876856239619</v>
+        <v>0.08870586362685616</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04468450230403369</v>
+        <v>0.03609887293673414</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>25</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1463555748.82781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3934033360.116946</v>
+        <v>3649858397.114405</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1308825400211047</v>
+        <v>0.1254250200053431</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05051013448924736</v>
+        <v>0.04120701785762207</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>34</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1967016684.88602</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2240516087.093379</v>
+        <v>2483555878.853361</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1354073400359542</v>
+        <v>0.1278691053665666</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04156385471341269</v>
+        <v>0.04103516849164742</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1120258073.156028</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2395666368.886833</v>
+        <v>3178707737.184471</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1225760793233238</v>
+        <v>0.1100308302707068</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03778842686515026</v>
+        <v>0.03669929945488158</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1197833228.092361</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2311372789.077443</v>
+        <v>1653984648.275364</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1090830660925613</v>
+        <v>0.08817312857253352</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03650494135234641</v>
+        <v>0.03214667049919279</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1155686348.205702</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5113657039.974233</v>
+        <v>3259457129.490366</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1346444545695407</v>
+        <v>0.1443675390417868</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01927408776545333</v>
+        <v>0.02430632915994637</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>38</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2556828665.862194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3101455357.833947</v>
+        <v>3694881731.378021</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07866335855948343</v>
+        <v>0.09391079070468511</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02267046437032912</v>
+        <v>0.02610582141397463</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>30</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1550727670.430734</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2988924994.002163</v>
+        <v>2467902356.879593</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1362440579833446</v>
+        <v>0.1069434684117624</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02859926314379564</v>
+        <v>0.03513404868625632</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1494462482.100239</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3308768821.242852</v>
+        <v>4809259405.254738</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1624794486967663</v>
+        <v>0.1525740200991455</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02069345347998148</v>
+        <v>0.02506829051643704</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>35</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1654384426.071784</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3562422725.258066</v>
+        <v>3531173451.98737</v>
       </c>
       <c r="F101" t="n">
-        <v>0.196159410302198</v>
+        <v>0.1671685262554853</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05383457753184434</v>
+        <v>0.05048864978998847</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>47</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1781211525.961865</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_113.xlsx
+++ b/output/fit_clients/fit_round_113.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2440861168.064242</v>
+        <v>2442844172.27367</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1009777377643097</v>
+        <v>0.08859320381359014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04332235201892586</v>
+        <v>0.04252536760323198</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2341460028.874927</v>
+        <v>2027179439.706411</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1461962147319486</v>
+        <v>0.1710712975971741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03945371657014502</v>
+        <v>0.03999178597832941</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4708035094.496726</v>
+        <v>4544547109.130489</v>
       </c>
       <c r="F4" t="n">
-        <v>0.150404763063643</v>
+        <v>0.1073989887754471</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02733217365309167</v>
+        <v>0.0333525949725952</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4044031170.041771</v>
+        <v>3958217457.89278</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1064597223862045</v>
+        <v>0.08379520374816027</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03440030896829832</v>
+        <v>0.03339928427582069</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1932768933.907537</v>
+        <v>2586072378.825315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1353980508398396</v>
+        <v>0.1416535637812746</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0460099566460878</v>
+        <v>0.0492821833467904</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2938340158.953315</v>
+        <v>2657991444.480255</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08612486717074019</v>
+        <v>0.07190651252289904</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04245769979072427</v>
+        <v>0.03831562410455316</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3563100334.942239</v>
+        <v>3087031734.382639</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2109399151537858</v>
+        <v>0.1380656556101972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03293364022937434</v>
+        <v>0.02978708588508066</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2107138380.439348</v>
+        <v>1592690721.574799</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1784946708258852</v>
+        <v>0.1306508103877776</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03582664740171622</v>
+        <v>0.03266572561291155</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4428029714.982105</v>
+        <v>5074318751.673598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1317497795806331</v>
+        <v>0.1745084945663293</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05182490623629602</v>
+        <v>0.03693152494685124</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3229039135.435989</v>
+        <v>3725358428.992042</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1761113126630459</v>
+        <v>0.1865817093704219</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03418720056479802</v>
+        <v>0.03235518562829689</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2346460986.046067</v>
+        <v>2520672745.910859</v>
       </c>
       <c r="F12" t="n">
-        <v>0.184686990444961</v>
+        <v>0.1968878930487031</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0416834774540983</v>
+        <v>0.04954174802484681</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3237676169.374376</v>
+        <v>5299037548.455848</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09440109547955225</v>
+        <v>0.08080312229621525</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02013422355593798</v>
+        <v>0.02686366602482627</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2943195226.870113</v>
+        <v>3538444477.331799</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1358474872020427</v>
+        <v>0.158895164508414</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04300340390226628</v>
+        <v>0.04204122295683781</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1250157695.244116</v>
+        <v>1127268930.394604</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09147646052334306</v>
+        <v>0.1001084421840062</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04696791552673458</v>
+        <v>0.04825384563794814</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2245442760.955324</v>
+        <v>2590018264.35521</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08677623679698279</v>
+        <v>0.08496535400416137</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04241530283479959</v>
+        <v>0.05179106397204108</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4925957760.118711</v>
+        <v>3922665186.819969</v>
       </c>
       <c r="F17" t="n">
-        <v>0.166131278054215</v>
+        <v>0.1240699172836985</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0400209178022434</v>
+        <v>0.04108670196678613</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3466672394.602458</v>
+        <v>3745082798.688398</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1601337500366861</v>
+        <v>0.1660511670051484</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02753310557986161</v>
+        <v>0.0233460032151886</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1212939331.307185</v>
+        <v>880940481.5588393</v>
       </c>
       <c r="F19" t="n">
-        <v>0.169066940106079</v>
+        <v>0.1471686321529755</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02010965799744574</v>
+        <v>0.02227628856990636</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2793734239.910629</v>
+        <v>2637916207.660885</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1165689419575916</v>
+        <v>0.1115419082735711</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02911257567023188</v>
+        <v>0.01939561523278423</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2526058396.965648</v>
+        <v>1811971640.2695</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09890733370735885</v>
+        <v>0.08619907862135889</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0367615951154012</v>
+        <v>0.04539018806899276</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2766731217.043223</v>
+        <v>3777960149.186664</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1063719574203903</v>
+        <v>0.1221068601920372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04973468390914188</v>
+        <v>0.03614604925402864</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1296055337.526255</v>
+        <v>984935338.4506842</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1668061106434822</v>
+        <v>0.1191663960439105</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04266317742920334</v>
+        <v>0.04134681668220358</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2620654349.838021</v>
+        <v>3024262883.029144</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1500688290473633</v>
+        <v>0.09695967571755945</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02742399029450598</v>
+        <v>0.03313383952923962</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1199788368.017418</v>
+        <v>1155153753.136708</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1226165638188139</v>
+        <v>0.07540312427960208</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02054836260425867</v>
+        <v>0.01939768619251608</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1455562265.392865</v>
+        <v>1229069972.841744</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0849305684643378</v>
+        <v>0.1140053841198264</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03814969502412784</v>
+        <v>0.02775124003698842</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4553843423.085754</v>
+        <v>3086095832.736092</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09829161996606245</v>
+        <v>0.118264523495941</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02650235316394273</v>
+        <v>0.0212082259416063</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3158695264.55124</v>
+        <v>2973908670.969247</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1455820173843799</v>
+        <v>0.1429838295928116</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04182321899686885</v>
+        <v>0.04728460620906376</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4945860244.330536</v>
+        <v>5471103397.464831</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1183117886018042</v>
+        <v>0.1023199379167122</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04321361690967281</v>
+        <v>0.03641023406941948</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1976627215.93501</v>
+        <v>2325665799.692267</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1350744475023204</v>
+        <v>0.1136813571332354</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03571990883097056</v>
+        <v>0.02657238582459191</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1495693912.917402</v>
+        <v>989473588.3000349</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08233738039896829</v>
+        <v>0.1080136548721595</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04490616535590446</v>
+        <v>0.03878312093143498</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1357808209.039279</v>
+        <v>1640718524.59382</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09397684114749197</v>
+        <v>0.08108452605289294</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03269389742230376</v>
+        <v>0.03701680943160736</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1933502796.135401</v>
+        <v>2079729649.690095</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1805923349411128</v>
+        <v>0.1377287236074256</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04202191016701558</v>
+        <v>0.04715593564543066</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1102628216.372581</v>
+        <v>1327909085.518669</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09869141407798075</v>
+        <v>0.08966177860951187</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01932367694590812</v>
+        <v>0.02667179226514453</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>900286744.0056716</v>
+        <v>1158835180.861306</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07871016534868622</v>
+        <v>0.1167959187906925</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03095423956324824</v>
+        <v>0.0396067133976102</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3074772570.78754</v>
+        <v>2411631913.31298</v>
       </c>
       <c r="F36" t="n">
-        <v>0.132297939262397</v>
+        <v>0.1725990779336536</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02645277423156524</v>
+        <v>0.025617303532488</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1845812038.673094</v>
+        <v>2407947736.701297</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09458374797211583</v>
+        <v>0.08216131081866837</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02937468583447292</v>
+        <v>0.0332254466942755</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1678687801.048586</v>
+        <v>2169027263.104747</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1024332965925991</v>
+        <v>0.07371047997395444</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02740251527306032</v>
+        <v>0.0357220514051045</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1483456337.158925</v>
+        <v>1336646769.434331</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1393001414708975</v>
+        <v>0.1904925043161662</v>
       </c>
       <c r="G39" t="n">
-        <v>0.024012665025608</v>
+        <v>0.03174933013892563</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1097030843.067158</v>
+        <v>1534410960.869801</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1147286413271886</v>
+        <v>0.134392399971114</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03940009270009004</v>
+        <v>0.04816270126619988</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2399296467.472747</v>
+        <v>2370554437.391546</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1382401703656062</v>
+        <v>0.1380516546608721</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03511749697663797</v>
+        <v>0.03108243698130093</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3841070421.207917</v>
+        <v>2651274185.941612</v>
       </c>
       <c r="F42" t="n">
-        <v>0.112507488496573</v>
+        <v>0.1177979647871544</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04610503918311936</v>
+        <v>0.04312742725916721</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2203458768.374959</v>
+        <v>2737636511.771416</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1835220656758962</v>
+        <v>0.1507347528223077</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01677635464874251</v>
+        <v>0.01656601779611214</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1454732343.34365</v>
+        <v>1650246007.141214</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08888488479583212</v>
+        <v>0.08498381464022994</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02657651780335065</v>
+        <v>0.02900752998465491</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2327592886.905562</v>
+        <v>2039345307.287044</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1761170422329439</v>
+        <v>0.1441488449476981</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03582637722510322</v>
+        <v>0.03752283572616089</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5366799443.820657</v>
+        <v>5156261975.76959</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1111676863852866</v>
+        <v>0.1303375102961007</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04707549664536406</v>
+        <v>0.03862697791068605</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5182634206.450084</v>
+        <v>3748651513.269901</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1362446903080197</v>
+        <v>0.1530647380805805</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05819806714027869</v>
+        <v>0.05747149102020981</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4565189692.021377</v>
+        <v>2981221146.415225</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07609086262167512</v>
+        <v>0.09725285829371663</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02956356616110422</v>
+        <v>0.03657550161490045</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1558353459.631734</v>
+        <v>1961405165.50317</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1851974908340907</v>
+        <v>0.1645332835914119</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02777353506654491</v>
+        <v>0.0377149313750625</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4156292640.348741</v>
+        <v>4150997443.280398</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1454780558535904</v>
+        <v>0.1720662556842433</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04114874269405666</v>
+        <v>0.03998467507337802</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>999726237.977195</v>
+        <v>1472383846.937739</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1750455756987472</v>
+        <v>0.1519725123718809</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04593134171182266</v>
+        <v>0.03559943763407546</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4158885870.703354</v>
+        <v>5159633674.478456</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09510615324527819</v>
+        <v>0.1278771718721724</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0523796007380307</v>
+        <v>0.04595097374686939</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2894820163.03878</v>
+        <v>2345818386.09032</v>
       </c>
       <c r="F53" t="n">
-        <v>0.147834019616144</v>
+        <v>0.1279749591846489</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02149206987318229</v>
+        <v>0.03393753504125745</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3419655462.608382</v>
+        <v>4745514175.756046</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1062215576436473</v>
+        <v>0.1102152818025648</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04812374886545949</v>
+        <v>0.04254394963416381</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3336870661.75379</v>
+        <v>3182260954.944802</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1526059301867581</v>
+        <v>0.161669045297002</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02744632177213123</v>
+        <v>0.02164210782624679</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1792715894.793853</v>
+        <v>1756470979.344483</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1231823440083114</v>
+        <v>0.1452775625588102</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04443061336165247</v>
+        <v>0.0455134213325202</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4159553761.509175</v>
+        <v>2953773311.705082</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1726573696057248</v>
+        <v>0.1559591674200479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02037244746433029</v>
+        <v>0.01831210246279983</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1742477900.700557</v>
+        <v>1227287756.169353</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1622590564340537</v>
+        <v>0.1425729614359036</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02741957681257811</v>
+        <v>0.03528619511949248</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4899763364.573419</v>
+        <v>4176477389.715171</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1027399739039213</v>
+        <v>0.1271023874317019</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0327807011751358</v>
+        <v>0.03142740685429402</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3375643110.996641</v>
+        <v>3494212434.92876</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1316014921233157</v>
+        <v>0.1339560237316705</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03194889181805908</v>
+        <v>0.02987454561592553</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2627410703.151689</v>
+        <v>2911911293.388452</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1772118937131116</v>
+        <v>0.1438258849241407</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0250593550750892</v>
+        <v>0.02989669190910712</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1658492678.673768</v>
+        <v>1998621140.758571</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1397800231772346</v>
+        <v>0.119672962436329</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03008366905336399</v>
+        <v>0.04391820415539913</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4254763641.550219</v>
+        <v>5499584159.201839</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08487180401146616</v>
+        <v>0.1065056089315754</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0386819171389865</v>
+        <v>0.04592193701711367</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4202677986.725537</v>
+        <v>3968840025.262352</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1856089610348426</v>
+        <v>0.1690058673054858</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0346713849073551</v>
+        <v>0.03330767713036952</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3716710578.355906</v>
+        <v>4056872264.664989</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1646684314934296</v>
+        <v>0.1202427099583127</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01990491289257426</v>
+        <v>0.02358138094420326</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4831351516.236818</v>
+        <v>5167722168.122895</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1570705536565982</v>
+        <v>0.1347662240616798</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04187640515391704</v>
+        <v>0.04087660217274683</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2224088840.35816</v>
+        <v>2520057357.359937</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06540316433561445</v>
+        <v>0.08151869223029407</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04393702056202441</v>
+        <v>0.03984880158697443</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5715147540.831213</v>
+        <v>4730013028.818645</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1539096802028662</v>
+        <v>0.1168226864761988</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05132997469370496</v>
+        <v>0.03943398276017699</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1852223590.772813</v>
+        <v>1918852916.146085</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1183401543246031</v>
+        <v>0.1594404016532262</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04118718684564668</v>
+        <v>0.03649634226992742</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3727574660.789548</v>
+        <v>2656647384.149251</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08660151968406782</v>
+        <v>0.09232279489537494</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04109819682455688</v>
+        <v>0.03667970616014075</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3927691624.39927</v>
+        <v>3573382928.323302</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1187786545017949</v>
+        <v>0.1452747400873015</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03052224110708735</v>
+        <v>0.03169568546823662</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1654912582.981064</v>
+        <v>1736396332.349901</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07576589412852874</v>
+        <v>0.08987336124725866</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03670364762458049</v>
+        <v>0.05050054345695264</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2647700653.245649</v>
+        <v>2169257920.007461</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1037610801886154</v>
+        <v>0.1105311171904867</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05157322429711407</v>
+        <v>0.0514889971401075</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3589401080.549656</v>
+        <v>3329685423.465092</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1671198471583686</v>
+        <v>0.1463542631246223</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02791150720813859</v>
+        <v>0.03106425022552623</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1685742880.921273</v>
+        <v>1650153783.946792</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1406864740662114</v>
+        <v>0.1336454259160321</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02940713077929829</v>
+        <v>0.03707832114633536</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4641001151.574922</v>
+        <v>4867272648.619623</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07716727553958494</v>
+        <v>0.08708135213011388</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02720849932871108</v>
+        <v>0.03143813894189385</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1631382784.469997</v>
+        <v>1508121564.749616</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1631438147628584</v>
+        <v>0.1297693906901855</v>
       </c>
       <c r="G77" t="n">
-        <v>0.031071127202922</v>
+        <v>0.021188650028956</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4453425076.015979</v>
+        <v>2934319863.481284</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1013650960809531</v>
+        <v>0.09102174621842336</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04978119493331744</v>
+        <v>0.04632223764396899</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1199565619.579513</v>
+        <v>1901085202.353922</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1754026407237252</v>
+        <v>0.1158326096397671</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03995485386701999</v>
+        <v>0.0289833112790134</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3912173457.409883</v>
+        <v>4478102206.394053</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09053566627571655</v>
+        <v>0.1118404242264163</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03178670333788444</v>
+        <v>0.03761131847696003</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5120196220.043971</v>
+        <v>3344639628.606442</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1280603148860303</v>
+        <v>0.1228639817629933</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02587436734425794</v>
+        <v>0.0255844600243149</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5026803721.514246</v>
+        <v>4507326281.526412</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1512514759322666</v>
+        <v>0.1356240774950754</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02157848525879392</v>
+        <v>0.02197191745181581</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2466483144.305192</v>
+        <v>2184617698.44946</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1270907717447665</v>
+        <v>0.1233188519507021</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03534290964843486</v>
+        <v>0.03968509191449744</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2056151320.750074</v>
+        <v>1697436206.568365</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07822003779806856</v>
+        <v>0.09020919333931136</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04881829179192065</v>
+        <v>0.04248903888659245</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3109785802.927072</v>
+        <v>2315873030.236116</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1337887852898889</v>
+        <v>0.1671172608709624</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04933724164062157</v>
+        <v>0.04858574086829789</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2768062537.773904</v>
+        <v>2773361307.83343</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1702710720459006</v>
+        <v>0.1381354781296332</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02158738370429501</v>
+        <v>0.0256149258297151</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1475764601.451105</v>
+        <v>1047745496.369165</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1289269845721876</v>
+        <v>0.144285413183136</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04120419166660303</v>
+        <v>0.03857069053701069</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3649715044.159999</v>
+        <v>2849829335.889202</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1532126546159167</v>
+        <v>0.1283268631750621</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0309353942240418</v>
+        <v>0.03101341374630741</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3356091926.42766</v>
+        <v>2993335780.39932</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1304826210665066</v>
+        <v>0.1529289838564733</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03044010989964755</v>
+        <v>0.02962656593947538</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1500752983.655327</v>
+        <v>1778512480.452614</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08961168229922188</v>
+        <v>0.09999932078659379</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04269320826462839</v>
+        <v>0.05628167631536522</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1463295315.283672</v>
+        <v>2058930700.412027</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1463796287740187</v>
+        <v>0.1662821631748503</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03759477888363245</v>
+        <v>0.05931003466139718</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2347012147.556786</v>
+        <v>2739994792.042394</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08870586362685616</v>
+        <v>0.08670886984637302</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03609887293673414</v>
+        <v>0.03009051212684431</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3649858397.114405</v>
+        <v>3537924467.454054</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1254250200053431</v>
+        <v>0.08583016829355961</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04120701785762207</v>
+        <v>0.04159245939657224</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2483555878.853361</v>
+        <v>1952834328.996112</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1278691053665666</v>
+        <v>0.1044049497517773</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04103516849164742</v>
+        <v>0.02694762296544305</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3178707737.184471</v>
+        <v>2669099895.580153</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1100308302707068</v>
+        <v>0.1091429569925181</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03669929945488158</v>
+        <v>0.04085746510778338</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1653984648.275364</v>
+        <v>2046872486.342664</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08817312857253352</v>
+        <v>0.1198148080002672</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03214667049919279</v>
+        <v>0.04592749182432446</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3259457129.490366</v>
+        <v>4036725411.62099</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1443675390417868</v>
+        <v>0.1092360344340877</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02430632915994637</v>
+        <v>0.02620522817053749</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3694881731.378021</v>
+        <v>2817829011.644691</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09391079070468511</v>
+        <v>0.08487825703805785</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02610582141397463</v>
+        <v>0.02212119633187297</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2467902356.879593</v>
+        <v>3005506167.38763</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1069434684117624</v>
+        <v>0.1119458804751294</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03513404868625632</v>
+        <v>0.02891201441474525</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4809259405.254738</v>
+        <v>4775205053.153854</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1525740200991455</v>
+        <v>0.1534431245841524</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02506829051643704</v>
+        <v>0.02328695517084999</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3531173451.98737</v>
+        <v>2995096258.126676</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1671685262554853</v>
+        <v>0.1584195367229459</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05048864978998847</v>
+        <v>0.0479212855495901</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_113.xlsx
+++ b/output/fit_clients/fit_round_113.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2442844172.27367</v>
+        <v>2453318489.288261</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08859320381359014</v>
+        <v>0.1088217993151749</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04252536760323198</v>
+        <v>0.04504695202344169</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2027179439.706411</v>
+        <v>1888096593.098544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1710712975971741</v>
+        <v>0.1519466783629429</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03999178597832941</v>
+        <v>0.04634845281724514</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4544547109.130489</v>
+        <v>5118340009.717107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1073989887754471</v>
+        <v>0.1663409707354127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0333525949725952</v>
+        <v>0.03109229475328659</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>112</v>
+      </c>
+      <c r="K4" t="n">
+        <v>153.1273801216281</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3958217457.89278</v>
+        <v>3040736969.889753</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08379520374816027</v>
+        <v>0.07093453162147124</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03339928427582069</v>
+        <v>0.05031439248218467</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2586072378.825315</v>
+        <v>2655738964.726295</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1416535637812746</v>
+        <v>0.1409493042348111</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0492821833467904</v>
+        <v>0.03588748793287598</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2657991444.480255</v>
+        <v>3066078838.550848</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07190651252289904</v>
+        <v>0.08078931626010322</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03831562410455316</v>
+        <v>0.04569899814677888</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3087031734.382639</v>
+        <v>3242996840.308158</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1380656556101972</v>
+        <v>0.1408475226756845</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02978708588508066</v>
+        <v>0.02603150837530556</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>32</v>
+      </c>
+      <c r="J8" t="n">
+        <v>112</v>
+      </c>
+      <c r="K8" t="n">
+        <v>81.94221909076272</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1592690721.574799</v>
+        <v>2206571489.572356</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1306508103877776</v>
+        <v>0.1789519952751929</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03266572561291155</v>
+        <v>0.02297804888184506</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5074318751.673598</v>
+        <v>5087237118.346171</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1745084945663293</v>
+        <v>0.1596610820845122</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03693152494685124</v>
+        <v>0.04976991438755676</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>104</v>
+      </c>
+      <c r="J10" t="n">
+        <v>113</v>
+      </c>
+      <c r="K10" t="n">
+        <v>169.7302451930118</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3725358428.992042</v>
+        <v>2984277356.786172</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1865817093704219</v>
+        <v>0.1558214342929742</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03235518562829689</v>
+        <v>0.03419959936451088</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>47</v>
+      </c>
+      <c r="J11" t="n">
+        <v>111</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2520672745.910859</v>
+        <v>3096508047.033468</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1968878930487031</v>
+        <v>0.175341973419757</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04954174802484681</v>
+        <v>0.04968492217384706</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5299037548.455848</v>
+        <v>4652701970.165035</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08080312229621525</v>
+        <v>0.09390641671543956</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02686366602482627</v>
+        <v>0.02322809882609066</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>56</v>
+      </c>
+      <c r="J13" t="n">
+        <v>113</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3538444477.331799</v>
+        <v>3187982306.917931</v>
       </c>
       <c r="F14" t="n">
-        <v>0.158895164508414</v>
+        <v>0.1305807399633902</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04204122295683781</v>
+        <v>0.03669512719067393</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1127268930.394604</v>
+        <v>1764592969.423687</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1001084421840062</v>
+        <v>0.08329026892805327</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04825384563794814</v>
+        <v>0.03611389479132056</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2590018264.35521</v>
+        <v>1855919884.558383</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08496535400416137</v>
+        <v>0.07915020195222522</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05179106397204108</v>
+        <v>0.03589657644010283</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3922665186.819969</v>
+        <v>4306550228.946292</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1240699172836985</v>
+        <v>0.1128078232818325</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04108670196678613</v>
+        <v>0.03920365428349454</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>54</v>
+      </c>
+      <c r="J17" t="n">
+        <v>113</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3745082798.688398</v>
+        <v>3820919545.387777</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1660511670051484</v>
+        <v>0.1846475237267282</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0233460032151886</v>
+        <v>0.03259483110236046</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>113</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>880940481.5588393</v>
+        <v>1232407552.390971</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1471686321529755</v>
+        <v>0.1642645764635706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02227628856990636</v>
+        <v>0.02577063169956063</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2637916207.660885</v>
+        <v>2488564221.749095</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1115419082735711</v>
+        <v>0.1051059142361943</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01939561523278423</v>
+        <v>0.02826650133019029</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1811971640.2695</v>
+        <v>1726263488.716586</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08619907862135889</v>
+        <v>0.07705311612325322</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04539018806899276</v>
+        <v>0.04567522898467871</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3777960149.186664</v>
+        <v>3980446141.164355</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1221068601920372</v>
+        <v>0.1379127310610418</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03614604925402864</v>
+        <v>0.04315576112395481</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>28</v>
+      </c>
+      <c r="J22" t="n">
+        <v>113</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>984935338.4506842</v>
+        <v>1494219365.104447</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1191663960439105</v>
+        <v>0.1436902106397973</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04134681668220358</v>
+        <v>0.0359518623666493</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3024262883.029144</v>
+        <v>3661048295.229865</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09695967571755945</v>
+        <v>0.09239218335048113</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03313383952923962</v>
+        <v>0.02656192835005955</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>34</v>
+      </c>
+      <c r="J24" t="n">
+        <v>113</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1155153753.136708</v>
+        <v>1404512934.887184</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07540312427960208</v>
+        <v>0.1083700830996437</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01939768619251608</v>
+        <v>0.02033875774260884</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1229069972.841744</v>
+        <v>888339354.9849013</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1140053841198264</v>
+        <v>0.1242928906252044</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02775124003698842</v>
+        <v>0.03695236932956045</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3086095832.736092</v>
+        <v>4324077102.28577</v>
       </c>
       <c r="F27" t="n">
-        <v>0.118264523495941</v>
+        <v>0.1390529470748688</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0212082259416063</v>
+        <v>0.0186682076365934</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>44</v>
+      </c>
+      <c r="J27" t="n">
+        <v>113</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2973908670.969247</v>
+        <v>3577055473.07194</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1429838295928116</v>
+        <v>0.107473593377843</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04728460620906376</v>
+        <v>0.04168385427430728</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24</v>
+      </c>
+      <c r="J28" t="n">
+        <v>113</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5471103397.464831</v>
+        <v>3825592760.180105</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1023199379167122</v>
+        <v>0.138828439448886</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03641023406941948</v>
+        <v>0.04338958341653195</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>105</v>
+      </c>
+      <c r="J29" t="n">
+        <v>112</v>
+      </c>
+      <c r="K29" t="n">
+        <v>134.070794193802</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2325665799.692267</v>
+        <v>1580673845.996972</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1136813571332354</v>
+        <v>0.1397652730586148</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02657238582459191</v>
+        <v>0.03069892829787696</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>989473588.3000349</v>
+        <v>1308249228.859423</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1080136548721595</v>
+        <v>0.08014177405725807</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03878312093143498</v>
+        <v>0.03770592670672799</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1640718524.59382</v>
+        <v>1261024242.617283</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08108452605289294</v>
+        <v>0.07891303076292913</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03701680943160736</v>
+        <v>0.03842192710082611</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2079729649.690095</v>
+        <v>2580619360.42826</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1377287236074256</v>
+        <v>0.1290818873107316</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04715593564543066</v>
+        <v>0.04876777426835179</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1327909085.518669</v>
+        <v>994395667.8328243</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08966177860951187</v>
+        <v>0.1182462444209282</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02667179226514453</v>
+        <v>0.02601170481634211</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1158835180.861306</v>
+        <v>982176799.775171</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1167959187906925</v>
+        <v>0.1075204501499506</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0396067133976102</v>
+        <v>0.03395524495923902</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2411631913.31298</v>
+        <v>1978663289.17794</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1725990779336536</v>
+        <v>0.1127020298932666</v>
       </c>
       <c r="G36" t="n">
-        <v>0.025617303532488</v>
+        <v>0.02464964199360411</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2407947736.701297</v>
+        <v>1861821437.99231</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08216131081866837</v>
+        <v>0.08416148590464605</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0332254466942755</v>
+        <v>0.03672336342999542</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2169027263.104747</v>
+        <v>1872485886.057102</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07371047997395444</v>
+        <v>0.1211251563116683</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0357220514051045</v>
+        <v>0.03799120523428018</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1336646769.434331</v>
+        <v>1935870850.366799</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1904925043161662</v>
+        <v>0.1868085220701206</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03174933013892563</v>
+        <v>0.02878775700669641</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1534410960.869801</v>
+        <v>1229365159.95593</v>
       </c>
       <c r="F40" t="n">
-        <v>0.134392399971114</v>
+        <v>0.1351639463206843</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04816270126619988</v>
+        <v>0.04050671417805517</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2370554437.391546</v>
+        <v>2876142558.772874</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1380516546608721</v>
+        <v>0.158095287529508</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03108243698130093</v>
+        <v>0.04166384706388085</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2651274185.941612</v>
+        <v>3990787808.603567</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1177979647871544</v>
+        <v>0.09391029462946236</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04312742725916721</v>
+        <v>0.04137830840304431</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>41</v>
+      </c>
+      <c r="J42" t="n">
+        <v>113</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2737636511.771416</v>
+        <v>2958475755.562439</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1507347528223077</v>
+        <v>0.1435020417003069</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01656601779611214</v>
+        <v>0.02449524854774136</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1650246007.141214</v>
+        <v>1753720334.59931</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08498381464022994</v>
+        <v>0.07362685218585491</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02900752998465491</v>
+        <v>0.03256136919216075</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2039345307.287044</v>
+        <v>2012016571.66031</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1441488449476981</v>
+        <v>0.1204441872364357</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03752283572616089</v>
+        <v>0.04916430238642121</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5156261975.76959</v>
+        <v>3885056083.487339</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1303375102961007</v>
+        <v>0.120716106585114</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03862697791068605</v>
+        <v>0.06074567465964158</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>65</v>
+      </c>
+      <c r="J46" t="n">
+        <v>112</v>
+      </c>
+      <c r="K46" t="n">
+        <v>119.0175103993553</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3748651513.269901</v>
+        <v>4900550953.377633</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1530647380805805</v>
+        <v>0.1552315110521609</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05747149102020981</v>
+        <v>0.04824302320798655</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>50</v>
+      </c>
+      <c r="J47" t="n">
+        <v>112</v>
+      </c>
+      <c r="K47" t="n">
+        <v>127.5851913485785</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2981221146.415225</v>
+        <v>3166326472.546355</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09725285829371663</v>
+        <v>0.07124039354925013</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03657550161490045</v>
+        <v>0.02528770549117467</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>43</v>
+      </c>
+      <c r="J48" t="n">
+        <v>112</v>
+      </c>
+      <c r="K48" t="n">
+        <v>79.13557817950401</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1961405165.50317</v>
+        <v>1676623294.412715</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1645332835914119</v>
+        <v>0.1924261972125317</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0377149313750625</v>
+        <v>0.02812120563259867</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4150997443.280398</v>
+        <v>2765228790.707577</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1720662556842433</v>
+        <v>0.1767494278785638</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03998467507337802</v>
+        <v>0.04459798055940001</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>39</v>
+      </c>
+      <c r="J50" t="n">
+        <v>112</v>
+      </c>
+      <c r="K50" t="n">
+        <v>58.80172209142788</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1472383846.937739</v>
+        <v>1262979736.16693</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1519725123718809</v>
+        <v>0.1418641509454233</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03559943763407546</v>
+        <v>0.03919168382175779</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5159633674.478456</v>
+        <v>4979545078.029536</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1278771718721724</v>
+        <v>0.08926563693559109</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04595097374686939</v>
+        <v>0.05288950681338308</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>87</v>
+      </c>
+      <c r="J52" t="n">
+        <v>113</v>
+      </c>
+      <c r="K52" t="n">
+        <v>160.9197357420428</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2345818386.09032</v>
+        <v>2850854364.193734</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1279749591846489</v>
+        <v>0.1500686131292349</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03393753504125745</v>
+        <v>0.03065177686970023</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>108</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4745514175.756046</v>
+        <v>4695243886.999922</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1102152818025648</v>
+        <v>0.1178799338869668</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04254394963416381</v>
+        <v>0.04247469300823636</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>51</v>
+      </c>
+      <c r="J54" t="n">
+        <v>113</v>
+      </c>
+      <c r="K54" t="n">
+        <v>154.8496553380158</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3182260954.944802</v>
+        <v>4686755300.39381</v>
       </c>
       <c r="F55" t="n">
-        <v>0.161669045297002</v>
+        <v>0.178976879444856</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02164210782624679</v>
+        <v>0.02493209396386051</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>52</v>
+      </c>
+      <c r="J55" t="n">
+        <v>112</v>
+      </c>
+      <c r="K55" t="n">
+        <v>141.9496990927144</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1756470979.344483</v>
+        <v>1258868146.124048</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1452775625588102</v>
+        <v>0.1392315766723288</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0455134213325202</v>
+        <v>0.04221550412535687</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2953773311.705082</v>
+        <v>3782880827.239565</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1559591674200479</v>
+        <v>0.1787367883036024</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01831210246279983</v>
+        <v>0.022067524730073</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>44</v>
+      </c>
+      <c r="J57" t="n">
+        <v>112</v>
+      </c>
+      <c r="K57" t="n">
+        <v>105.2415362328786</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1227287756.169353</v>
+        <v>1196144660.586632</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1425729614359036</v>
+        <v>0.1543809091336557</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03528619511949248</v>
+        <v>0.03676308468522382</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4176477389.715171</v>
+        <v>5249699166.34362</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1271023874317019</v>
+        <v>0.1189511139182231</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03142740685429402</v>
+        <v>0.03973987270580589</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>55</v>
+      </c>
+      <c r="J59" t="n">
+        <v>112</v>
+      </c>
+      <c r="K59" t="n">
+        <v>143.9589064561603</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3494212434.92876</v>
+        <v>3488082147.035078</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1339560237316705</v>
+        <v>0.2012773767099519</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02987454561592553</v>
+        <v>0.02225168216198706</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>110</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2911911293.388452</v>
+        <v>2832843743.67739</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1438258849241407</v>
+        <v>0.1498810660244425</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02989669190910712</v>
+        <v>0.02570158957064625</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1998621140.758571</v>
+        <v>1635912711.017014</v>
       </c>
       <c r="F62" t="n">
-        <v>0.119672962436329</v>
+        <v>0.177860897721882</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04391820415539913</v>
+        <v>0.03526954167130892</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5499584159.201839</v>
+        <v>3392321136.563516</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1065056089315754</v>
+        <v>0.06764698788244944</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04592193701711367</v>
+        <v>0.04524510528680518</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>56</v>
+      </c>
+      <c r="J63" t="n">
+        <v>112</v>
+      </c>
+      <c r="K63" t="n">
+        <v>80.51049576978222</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2693,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3968840025.262352</v>
+        <v>3542333343.716336</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1690058673054858</v>
+        <v>0.1549092292216319</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03330767713036952</v>
+        <v>0.03142928572325758</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>56</v>
+      </c>
+      <c r="J64" t="n">
+        <v>112</v>
+      </c>
+      <c r="K64" t="n">
+        <v>93.86968817454029</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2730,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4056872264.664989</v>
+        <v>5253785530.60412</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1202427099583127</v>
+        <v>0.1673380216082484</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02358138094420326</v>
+        <v>0.03129544355345768</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>93</v>
+      </c>
+      <c r="J65" t="n">
+        <v>113</v>
+      </c>
+      <c r="K65" t="n">
+        <v>160.0427687145128</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2767,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5167722168.122895</v>
+        <v>3627963007.146775</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1347662240616798</v>
+        <v>0.1267250557398827</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04087660217274683</v>
+        <v>0.03837477637489776</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>55</v>
+      </c>
+      <c r="J66" t="n">
+        <v>113</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2520057357.359937</v>
+        <v>2799670610.301194</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08151869223029407</v>
+        <v>0.06638868436824789</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03984880158697443</v>
+        <v>0.05149280584848679</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4730013028.818645</v>
+        <v>5868583365.243304</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1168226864761988</v>
+        <v>0.1462960975751162</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03943398276017699</v>
+        <v>0.03849421698872631</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>56</v>
+      </c>
+      <c r="J68" t="n">
+        <v>113</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1918852916.146085</v>
+        <v>1798588356.593496</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1594404016532262</v>
+        <v>0.1554346570227595</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03649634226992742</v>
+        <v>0.03620771798891859</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2656647384.149251</v>
+        <v>2289333291.156398</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09232279489537494</v>
+        <v>0.09075117572346023</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03667970616014075</v>
+        <v>0.03448811406146592</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>105</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3573382928.323302</v>
+        <v>5021828916.33461</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1452747400873015</v>
+        <v>0.1771468105003972</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03169568546823662</v>
+        <v>0.03344207074259348</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>92</v>
+      </c>
+      <c r="J71" t="n">
+        <v>113</v>
+      </c>
+      <c r="K71" t="n">
+        <v>158.4748935162317</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1736396332.349901</v>
+        <v>1987974034.500918</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08987336124725866</v>
+        <v>0.1022773961676808</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05050054345695264</v>
+        <v>0.03466927367279865</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2169257920.007461</v>
+        <v>2897121062.275438</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1105311171904867</v>
+        <v>0.1079450525389872</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0514889971401075</v>
+        <v>0.03768177643402451</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>111</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3329685423.465092</v>
+        <v>2973632609.760363</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1463542631246223</v>
+        <v>0.1282537566696851</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03106425022552623</v>
+        <v>0.02580362939087552</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>38</v>
+      </c>
+      <c r="J74" t="n">
+        <v>109</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1650153783.946792</v>
+        <v>1578136696.559909</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1336454259160321</v>
+        <v>0.1127791985038744</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03707832114633536</v>
+        <v>0.03473580905807923</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4867272648.619623</v>
+        <v>5232817817.400582</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08708135213011388</v>
+        <v>0.1236655363717058</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03143813894189385</v>
+        <v>0.03395471463240152</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>52</v>
+      </c>
+      <c r="J76" t="n">
+        <v>113</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1508121564.749616</v>
+        <v>1508522228.604116</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1297693906901855</v>
+        <v>0.180587483143041</v>
       </c>
       <c r="G77" t="n">
-        <v>0.021188650028956</v>
+        <v>0.02728283199954963</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2934319863.481284</v>
+        <v>3803764453.744437</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09102174621842336</v>
+        <v>0.108110607595669</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04632223764396899</v>
+        <v>0.04962922945148839</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>56</v>
+      </c>
+      <c r="J78" t="n">
+        <v>113</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1901085202.353922</v>
+        <v>1543217325.910623</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1158326096397671</v>
+        <v>0.1558922738753334</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0289833112790134</v>
+        <v>0.03172943849899634</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4478102206.394053</v>
+        <v>4347465834.366475</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1118404242264163</v>
+        <v>0.08310324337873481</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03761131847696003</v>
+        <v>0.02850406698481724</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>54</v>
+      </c>
+      <c r="J80" t="n">
+        <v>113</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3344639628.606442</v>
+        <v>4387295038.320553</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1228639817629933</v>
+        <v>0.1259875236190221</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0255844600243149</v>
+        <v>0.0236066249279101</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>50</v>
+      </c>
+      <c r="J81" t="n">
+        <v>113</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4507326281.526412</v>
+        <v>4365590063.796419</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1356240774950754</v>
+        <v>0.1594023752132247</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02197191745181581</v>
+        <v>0.02269081184496367</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>76</v>
+      </c>
+      <c r="J82" t="n">
+        <v>113</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2184617698.44946</v>
+        <v>2241769823.494477</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1233188519507021</v>
+        <v>0.134815907928587</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03968509191449744</v>
+        <v>0.03589360327508485</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1697436206.568365</v>
+        <v>1892692318.583853</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09020919333931136</v>
+        <v>0.09758330776263723</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04248903888659245</v>
+        <v>0.04355649519836871</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2315873030.236116</v>
+        <v>2920981474.231053</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1671172608709624</v>
+        <v>0.1246650907163549</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04858574086829789</v>
+        <v>0.05619227840092243</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2773361307.83343</v>
+        <v>2026414959.188083</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1381354781296332</v>
+        <v>0.1351809980370393</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0256149258297151</v>
+        <v>0.0167312156130354</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1047745496.369165</v>
+        <v>969813438.3422718</v>
       </c>
       <c r="F87" t="n">
-        <v>0.144285413183136</v>
+        <v>0.1663055756891755</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03857069053701069</v>
+        <v>0.04043774386493536</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2849829335.889202</v>
+        <v>2438861673.61472</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1283268631750621</v>
+        <v>0.1207397481743952</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03101341374630741</v>
+        <v>0.03579744632901368</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2993335780.39932</v>
+        <v>2490656921.647416</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1529289838564733</v>
+        <v>0.1344964733057279</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02962656593947538</v>
+        <v>0.02875825494541924</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1778512480.452614</v>
+        <v>1501279205.830707</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09999932078659379</v>
+        <v>0.09714548499959257</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05628167631536522</v>
+        <v>0.05384191300063727</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2058930700.412027</v>
+        <v>1937946972.02789</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1662821631748503</v>
+        <v>0.1395561809094795</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05931003466139718</v>
+        <v>0.05020107483397413</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2739994792.042394</v>
+        <v>2942621179.631608</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08670886984637302</v>
+        <v>0.09317554308420729</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03009051212684431</v>
+        <v>0.04252041703968969</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3537924467.454054</v>
+        <v>4568292467.076316</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08583016829355961</v>
+        <v>0.09420091267279436</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04159245939657224</v>
+        <v>0.04483304799362915</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>52</v>
+      </c>
+      <c r="J93" t="n">
+        <v>112</v>
+      </c>
+      <c r="K93" t="n">
+        <v>143.15467262835</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1952834328.996112</v>
+        <v>1553957623.125217</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1044049497517773</v>
+        <v>0.107076338142977</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02694762296544305</v>
+        <v>0.03641992089263687</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2669099895.580153</v>
+        <v>2214777071.7786</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1091429569925181</v>
+        <v>0.1071419083243778</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04085746510778338</v>
+        <v>0.04384055097842834</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2046872486.342664</v>
+        <v>2332015775.675325</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1198148080002672</v>
+        <v>0.1301052488626266</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04592749182432446</v>
+        <v>0.0406995771448932</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4036725411.62099</v>
+        <v>4464023980.793713</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1092360344340877</v>
+        <v>0.1771464450925109</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02620522817053749</v>
+        <v>0.02474925233506528</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>54</v>
+      </c>
+      <c r="J97" t="n">
+        <v>112</v>
+      </c>
+      <c r="K97" t="n">
+        <v>152.2968711477222</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2817829011.644691</v>
+        <v>2403492217.951638</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08487825703805785</v>
+        <v>0.120470859944695</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02212119633187297</v>
+        <v>0.02439910968490153</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>26</v>
+      </c>
+      <c r="J98" t="n">
+        <v>110</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3005506167.38763</v>
+        <v>2999505468.160558</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1119458804751294</v>
+        <v>0.1037440599804581</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02891201441474525</v>
+        <v>0.02530668975908814</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4775205053.153854</v>
+        <v>3210967024.307576</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1534431245841524</v>
+        <v>0.1148155604858784</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02328695517084999</v>
+        <v>0.0237402575659772</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>46</v>
+      </c>
+      <c r="J100" t="n">
+        <v>112</v>
+      </c>
+      <c r="K100" t="n">
+        <v>73.59405150516874</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2995096258.126676</v>
+        <v>2173436235.193392</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1584195367229459</v>
+        <v>0.1695361472005055</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0479212855495901</v>
+        <v>0.04553479204999451</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
